--- a/biology/Mycologie/Bolet_châtain/Bolet_châtain.xlsx
+++ b/biology/Mycologie/Bolet_châtain/Bolet_châtain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bolet_ch%C3%A2tain</t>
+          <t>Bolet_châtain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet châtain
 Gyroporus castaneus, le Bolet châtain, est une espèce de champignons (Fungi) basidiomycètes du genre Gyroporus dans la famille des Gyroporaceae. Il est caractérisé par ses tons châtains et son pied lisse, caverneux à la coupe.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bolet_ch%C3%A2tain</t>
+          <t>Bolet_châtain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Gyroporus castaneus (Bull.) Quél. 1886[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus castaneus Bull. 1788[1].
-Synonymes
-Gyroporus castaneus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Gyroporus castaneus (Bull.) Quél. 1886.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus castaneus Bull. 1788.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bolet_châtain</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_ch%C3%A2tain</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gyroporus castaneus a pour synonymes :
 Boletus castaneus Bull.
 Suillus castaneus (Bull.) P. Karst.
 Leucobolites castaneus (Bull.) Beck.
@@ -539,49 +588,6 @@
 Gyroporus castaneus var. ammophilus M.L. Castro &amp; L. Freire.
 Gyroporus ammophilus (M.L. Castro &amp; L. Freire) M.L. Castro &amp; L. Freire.
 Gyroporus castaneus var. velutinus Cetto ex Estadès &amp; Bidaud.
-Phylogénie
-L'espèce a été décrite initialement par le mycologue français Jean Baptiste François Pierre Bulliard (1742-1792). Autrefois membre de la famille des Paxillaceae, la recherche place désormais ce champignon parmi les Gyroporaceae.
-Étymologie
-Gyroporus signifie « pores ronds » et castaneus fait référence à la coloration châtaine de l'espèce.
-Noms vulgaires et vernaculaires
-Bolet châtain, Bolet châtaigne.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bolet_ch%C3%A2tain</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bolet_ch%C3%A2tain</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description du sporophore</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Gyroporus castaneus sont les suivantes:
-Chapeau : chapeau 4-10 cm, charnu, convexe puis aplati à pulviné. Surface sèche, lisse, mate, finement veloutée dans la jeunesse, brun bai plus ou moins pâle avec une nuance orangée, roux châtain, pouvant être pâle ou presque noir[2]. Marge aiguë.
-Hyménophore : pores fins, paraissant isolés, blancs puis crème. Tubes longs de 5-10 mm blancs puis jaunâtres avec l'âge.
-Stipe: pied 4-8 x 1,5-3 cm, concolore au chapeau, légèrement ventru et souvent cabossé, fragile creux et caverneux (rempli de cavités).
-Chair : chair blanche, épaisse, immuable. Odeur légèrement acidulée. Saveur douce[3].
-Caractéristiques microscopiques
-Spores elliptiques, lisses, jaunâtres, à paroi épaisse, guttulées. Sporée jaune pâle. Basides clavées, tétrasporiques bouclées. Cheilocystides fusiformes, 25-43 x 5-7,5 µm. Cuticule trichodermique faite d'hyphes bouclées à articles courts larges de 8-18 µm, aux extrémités cylindriques à subulées, pigmentées de brun[3].
 </t>
         </is>
       </c>
@@ -592,7 +598,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bolet_ch%C3%A2tain</t>
+          <t>Bolet_châtain</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -607,10 +613,197 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite initialement par le mycologue français Jean Baptiste François Pierre Bulliard (1742-1792). Autrefois membre de la famille des Paxillaceae, la recherche place désormais ce champignon parmi les Gyroporaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bolet_châtain</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_ch%C3%A2tain</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gyroporus signifie « pores ronds » et castaneus fait référence à la coloration châtaine de l'espèce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bolet_châtain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_ch%C3%A2tain</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolet châtain, Bolet châtaigne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bolet_châtain</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_ch%C3%A2tain</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Gyroporus castaneus sont les suivantes:
+Chapeau : chapeau 4-10 cm, charnu, convexe puis aplati à pulviné. Surface sèche, lisse, mate, finement veloutée dans la jeunesse, brun bai plus ou moins pâle avec une nuance orangée, roux châtain, pouvant être pâle ou presque noir. Marge aiguë.
+Hyménophore : pores fins, paraissant isolés, blancs puis crème. Tubes longs de 5-10 mm blancs puis jaunâtres avec l'âge.
+Stipe: pied 4-8 x 1,5-3 cm, concolore au chapeau, légèrement ventru et souvent cabossé, fragile creux et caverneux (rempli de cavités).
+Chair : chair blanche, épaisse, immuable. Odeur légèrement acidulée. Saveur douce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bolet_châtain</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_ch%C3%A2tain</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spores elliptiques, lisses, jaunâtres, à paroi épaisse, guttulées. Sporée jaune pâle. Basides clavées, tétrasporiques bouclées. Cheilocystides fusiformes, 25-43 x 5-7,5 µm. Cuticule trichodermique faite d'hyphes bouclées à articles courts larges de 8-18 µm, aux extrémités cylindriques à subulées, pigmentées de brun.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bolet_châtain</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_ch%C3%A2tain</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Variétés et formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>G. castaneus f. velutinus : chapeau très sombre
 G. castaneus var. afibulatus : dépourvu de boucles sous le microscope</t>
